--- a/data/Map127.xlsx
+++ b/data/Map127.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>自動実行</t>
   </si>
@@ -23,7 +23,13 @@
     <t>リリー</t>
   </si>
   <si>
+    <t>Rewrite     -   Lily</t>
+  </si>
+  <si>
     <t>シィナ</t>
+  </si>
+  <si>
+    <t>Sina</t>
   </si>
   <si>
     <t>ライム</t>
@@ -682,7 +688,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A85"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,429 +696,435 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map127.xlsx
+++ b/data/Map127.xlsx
@@ -23,13 +23,13 @@
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>ライム</t>

--- a/data/Map127.xlsx
+++ b/data/Map127.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>自動実行</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>ライム</t>
+  </si>
+  <si>
+    <t>Lime</t>
   </si>
   <si>
     <t>イベント実行</t>
@@ -688,7 +691,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,435 +699,444 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map127.xlsx
+++ b/data/Map127.xlsx
@@ -691,7 +691,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,443 +699,683 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
         <v>87</v>
       </c>
     </row>

--- a/data/Map127.xlsx
+++ b/data/Map127.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057D94E8-775F-461D-AB01-EF4F6B132414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
   <si>
     <t>自動実行</t>
   </si>
@@ -353,22 +359,337 @@
   <si>
     <t>\n&lt;シィナ&gt;気に入ってんじゃねーか！
 きっしょ！</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I had an idea.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You know how we have to go out there to 
+capture villagers or adventurers to use as semen slaves?
+Isn't that such a bother?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Right.
+So that's when this great idea came to me.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Hey, come on.
+Would you stop saying things before I can?
+It's starting to feel like this isn't my idea anymore.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Geez...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Let me guess, Lime. You already wrote the request.
+Alright, let's hear it.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You say while eating a pizza.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Why would the vegetables be a subtraction...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Wouldn't picking them off just make it worse?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;What's that-?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Yeah.
+Are you thinking of luring them to us now-?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Did you want to submit a subjugation request
+to the guild, and have them send an adventurer to us?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Beginners welcome. A simple task anyone can complete.
+Perfect for gathering experience as a new hunter...
+Meals included... How's that sound?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;What the-!
+Don't just blurt that out!
+Even if it is the truth...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;I'm on a diet-.
+Munch, munch...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;But I'm also eating lots of veggies-.
+So you know, a negative and a positive equal zero-!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Because if I fill up my stomach with vegetables,
+then I'm going to eat less pizza.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;It's fine. Worst case,
+I'll just pick the veggies off and have them separately...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Meoooow!
+Our prey would waltz right up to us, nya!
+Lime, you're a genius, nyaan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;We're gonna get so many new slaves! We're not
+gonna be able to open our mouths without a dick going in!
+Nyahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Lime's so fat, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Pizza + veggies does not equal zero, nya.
+Do you know how to add?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;That doesn't work when you eat pizza and veggies,
+and then eat pizza for dessert, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+Hey, have you ever been in love?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I'm not really sure myself.
+They say sex feels so much better when you're in love.
+I read it in a book.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;'Like' and 'love' are different. There's differnet kinds of love.
+For example, you 'love pizza', and you 'love us',
+but those are two different kinds of 'love', right?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Eh?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;The same kind of love?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Huh? What are you saying, Lily?
+You're talking like a little girl, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Are you serious?
+...
+I want to try it in that case, nyaa...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;When they say love, they're talking about falling in
+love with somebody. It's not the way you normally like someone.
+Love is a feeling way beyond liking somebody.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Eh?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Love?
+What is love?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Does love really make sex feel good?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;So I'm in love with Lily and Shina?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;...?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;They're the same kind of love?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Eh?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;A romance novel?
+Is it interesting?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Does holding hands mean you're in love?
+What about sex?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ahh, wonderful roast potatoes♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Lily?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;So it was interesting?
+Ah, let me borrow it then. I want to read it too♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;So, they've finally just held hands.
+There's only 5 pages left now.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Umm...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;That was it. It's over...
+The last 4 pages are an afterword.
+...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;H-hold on a moment.
+Burn some other book.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I-I don't know...
+I don't know why, but...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;O-oh yeah!
+This book contains toxic substances that can't be burned...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I-I didn't like it that much!
+Stop calling me a dork!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Fine, but don't read it in the bath.
+I don't want it to get wet.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;What's the point if there's no sex, nya.
+Let's burn it and roast some potatoes.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You liked that book, didn't you!
+You dork!
+You're a succubus, aren't you? Cut it out, nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Hope you like it!
+You dorks!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Hey Lily.
+What's that book you're reading?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Haah?
+You can't have sex in 5 pages, nyan.
+That's like, turbo-premature ejaculation.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Oh, by the way...
+You know that human you captured?
+I tossed him back into the forest, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What!!
+How you could you do that!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;He was so gross, nyan...
+He was licking my feet, and he was too enthusiastic.
+He started calling me Mistress Shina.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ehh...?
+But you do that all the time...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;There's a difference between making someone lick your
+feet, and having your feet licked. I enjoy when it makes 'em
+squirm. But when they're enjoying it, it gives me goosebumps.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Tsk...
+Well, since you set this one free,
+you're in charge of catching the next one.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Dammit, nya.
+Such a pain, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Hmm-?
+Do you hear something...?</t>
+  </si>
+  <si>
+    <t>\n&lt;Semen Slave&gt;Mistress Shinaaa!!
+Please don't abandon me!!</t>
+  </si>
+  <si>
+    <t>\}naaa... don't... me...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Geez!!
+He came back, nya!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Mistress Shina, please choose me.
+Please make me lick your feet.
+Lick lick lick lick lick～.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;That guy makes my skin crawl, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;To think he'd offer himself up to be drained...
+I really don't understand humans-.</t>
+  </si>
+  <si>
+    <t>\n&lt;Semen Slave&gt;Mistress Shina～～!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;No, that's not it.
+Don't say that again. You're making my skin crawl.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;But I love you. Are you talking about something else?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;What are you saying, nyaa?
+You guys are driving me crazy today.
+I feel like I'm gonna barf.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Put in 'a cosy workplace'.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Erm...
+Well, there's a man and a woman, and they won't hold hands,
+no matter how much time passes.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You wouldn't get it. You reproduce by dividing your body.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Don't be mean.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;A book off the shelf over there.
+I think it's a romance novel.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -376,28 +697,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -687,19 +1024,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B75" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.7109375" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -715,7 +1054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -723,7 +1062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -731,7 +1070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -739,658 +1078,888 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="C31" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="C50" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="C85" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>